--- a/archivo.xlsx
+++ b/archivo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1459be34a2928edf/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1459be34a2928edf/Escritorio/Josue/programas Python/PROYECTO_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{977AAF6E-FE97-4B4A-A54E-6BB4192A3875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{977AAF6E-FE97-4B4A-A54E-6BB4192A3875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EEA0200-5392-4B2F-AE4D-5BE0AC682F1B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Book2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Fecha</t>
   </si>
@@ -36,329 +36,11 @@
   <si>
     <t>Petroleo</t>
   </si>
-  <si>
-    <t>4,9</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>0,8</t>
-  </si>
-  <si>
-    <t>2,9</t>
-  </si>
-  <si>
-    <t>5,2</t>
-  </si>
-  <si>
-    <t>0,2</t>
-  </si>
-  <si>
-    <t>3,1</t>
-  </si>
-  <si>
-    <t>0,9</t>
-  </si>
-  <si>
-    <t>3,3</t>
-  </si>
-  <si>
-    <t>3,6</t>
-  </si>
-  <si>
-    <t>5,1</t>
-  </si>
-  <si>
-    <t>3,8</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>4,1</t>
-  </si>
-  <si>
-    <t>5,3</t>
-  </si>
-  <si>
-    <t>4,4</t>
-  </si>
-  <si>
-    <t>5,4</t>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>4,8</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>0,3</t>
-  </si>
-  <si>
-    <t>1,6</t>
-  </si>
-  <si>
-    <t>5,5</t>
-  </si>
-  <si>
-    <t>1,7</t>
-  </si>
-  <si>
-    <t>5,7</t>
-  </si>
-  <si>
-    <t>1,8</t>
-  </si>
-  <si>
-    <t>6,8</t>
-  </si>
-  <si>
-    <t>1,9</t>
-  </si>
-  <si>
-    <t>7,2</t>
-  </si>
-  <si>
-    <t>2,1</t>
-  </si>
-  <si>
-    <t>7,8</t>
-  </si>
-  <si>
-    <t>5,9</t>
-  </si>
-  <si>
-    <t>2,2</t>
-  </si>
-  <si>
-    <t>8,2</t>
-  </si>
-  <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>8,1</t>
-  </si>
-  <si>
-    <t>6,3</t>
-  </si>
-  <si>
-    <t>0,4</t>
-  </si>
-  <si>
-    <t>2,4</t>
-  </si>
-  <si>
-    <t>8,5</t>
-  </si>
-  <si>
-    <t>6,4</t>
-  </si>
-  <si>
-    <t>8,8</t>
-  </si>
-  <si>
-    <t>6,5</t>
-  </si>
-  <si>
-    <t>2,6</t>
-  </si>
-  <si>
-    <t>9,2</t>
-  </si>
-  <si>
-    <t>2,7</t>
-  </si>
-  <si>
-    <t>9,3</t>
-  </si>
-  <si>
-    <t>2,8</t>
-  </si>
-  <si>
-    <t>8,6</t>
-  </si>
-  <si>
-    <t>7,1</t>
-  </si>
-  <si>
-    <t>8,3</t>
-  </si>
-  <si>
-    <t>7,3</t>
-  </si>
-  <si>
-    <t>7,7</t>
-  </si>
-  <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t>8,7</t>
-  </si>
-  <si>
-    <t>8,9</t>
-  </si>
-  <si>
-    <t>3,5</t>
-  </si>
-  <si>
-    <t>9,1</t>
-  </si>
-  <si>
-    <t>3,9</t>
-  </si>
-  <si>
-    <t>9,7</t>
-  </si>
-  <si>
-    <t>8,4</t>
-  </si>
-  <si>
-    <t>0,6</t>
-  </si>
-  <si>
-    <t>4,2</t>
-  </si>
-  <si>
-    <t>9,4</t>
-  </si>
-  <si>
-    <t>9,6</t>
-  </si>
-  <si>
-    <t>0,7</t>
-  </si>
-  <si>
-    <t>9,8</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>9,9</t>
-  </si>
-  <si>
-    <t>4,6</t>
-  </si>
-  <si>
-    <t>10,1</t>
-  </si>
-  <si>
-    <t>4,7</t>
-  </si>
-  <si>
-    <t>10,3</t>
-  </si>
-  <si>
-    <t>10,4</t>
-  </si>
-  <si>
-    <t>10,5</t>
-  </si>
-  <si>
-    <t>10,7</t>
-  </si>
-  <si>
-    <t>10,9</t>
-  </si>
-  <si>
-    <t>11,5</t>
-  </si>
-  <si>
-    <t>11,1</t>
-  </si>
-  <si>
-    <t>12,2</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>11,2</t>
-  </si>
-  <si>
-    <t>12,8</t>
-  </si>
-  <si>
-    <t>11,3</t>
-  </si>
-  <si>
-    <t>13,2</t>
-  </si>
-  <si>
-    <t>5,8</t>
-  </si>
-  <si>
-    <t>13,9</t>
-  </si>
-  <si>
-    <t>6,2</t>
-  </si>
-  <si>
-    <t>11,4</t>
-  </si>
-  <si>
-    <t>14,7</t>
-  </si>
-  <si>
-    <t>14,9</t>
-  </si>
-  <si>
-    <t>11,6</t>
-  </si>
-  <si>
-    <t>15,1</t>
-  </si>
-  <si>
-    <t>1,5</t>
-  </si>
-  <si>
-    <t>6,7</t>
-  </si>
-  <si>
-    <t>11,7</t>
-  </si>
-  <si>
-    <t>11,9</t>
-  </si>
-  <si>
-    <t>14,4</t>
-  </si>
-  <si>
-    <t>14,5</t>
-  </si>
-  <si>
-    <t>7,5</t>
-  </si>
-  <si>
-    <t>12,3</t>
-  </si>
-  <si>
-    <t>7,6</t>
-  </si>
-  <si>
-    <t>14,2</t>
-  </si>
-  <si>
-    <t>7,9</t>
-  </si>
-  <si>
-    <t>11,8</t>
-  </si>
-  <si>
-    <t>12,1</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -836,8 +518,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -897,14 +580,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E65" totalsRowShown="0">
-  <autoFilter ref="A1:E65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E65" totalsRowShown="0">
+  <autoFilter ref="A1:E65" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Fecha"/>
-    <tableColumn id="2" name="Carbon"/>
-    <tableColumn id="3" name="Cemento"/>
-    <tableColumn id="4" name="Gas"/>
-    <tableColumn id="5" name="Petroleo"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fecha"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Carbon"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Cemento"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Gas"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Petroleo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1206,11 +889,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1220,7 +903,7 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1237,276 +920,278 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1959</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1960</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>5.2</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <v>0.8</v>
+      </c>
+      <c r="E3">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1961</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+      <c r="D4">
+        <v>0.9</v>
+      </c>
+      <c r="E4">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1962</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+      <c r="B5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1963</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
+      <c r="B6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C6">
+        <v>0.2</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>3.8</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1964</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>5.2</v>
+      </c>
+      <c r="C7">
+        <v>0.2</v>
+      </c>
+      <c r="D7">
+        <v>1.2</v>
+      </c>
+      <c r="E7">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1965</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>5.3</v>
+      </c>
+      <c r="C8">
+        <v>0.2</v>
+      </c>
+      <c r="D8">
+        <v>1.2</v>
+      </c>
+      <c r="E8">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1966</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>5.4</v>
+      </c>
+      <c r="C9">
+        <v>0.2</v>
+      </c>
+      <c r="D9">
+        <v>1.3</v>
+      </c>
+      <c r="E9">
+        <v>4.8</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1967</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>5.3</v>
+      </c>
+      <c r="C10">
+        <v>0.2</v>
+      </c>
+      <c r="D10">
+        <v>1.4</v>
+      </c>
+      <c r="E10">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1968</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>5.3</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11">
+        <v>1.6</v>
+      </c>
+      <c r="E11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1969</v>
       </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
+      <c r="B12">
+        <v>5.5</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+      <c r="D12">
+        <v>1.7</v>
       </c>
       <c r="E12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1970</v>
       </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>5.7</v>
+      </c>
+      <c r="C13">
+        <v>0.3</v>
+      </c>
+      <c r="D13">
+        <v>1.8</v>
+      </c>
+      <c r="E13">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1971</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>5.7</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>1.9</v>
+      </c>
+      <c r="E14">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1972</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>5.7</v>
+      </c>
+      <c r="C15">
+        <v>0.3</v>
+      </c>
+      <c r="D15">
+        <v>2.1</v>
+      </c>
+      <c r="E15">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1973</v>
       </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
+      <c r="B16">
+        <v>5.9</v>
+      </c>
+      <c r="C16">
+        <v>0.3</v>
+      </c>
+      <c r="D16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E16">
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1974</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
+      <c r="B17">
+        <v>5.9</v>
+      </c>
+      <c r="C17">
+        <v>0.3</v>
+      </c>
+      <c r="D17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E17">
+        <v>8.1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1516,11 +1201,11 @@
       <c r="B18">
         <v>6</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
+      <c r="C18">
+        <v>0.3</v>
+      </c>
+      <c r="D18">
+        <v>2.2999999999999998</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -1530,68 +1215,68 @@
       <c r="A19">
         <v>1976</v>
       </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" t="s">
-        <v>44</v>
+      <c r="B19">
+        <v>6.3</v>
+      </c>
+      <c r="C19">
+        <v>0.4</v>
+      </c>
+      <c r="D19">
+        <v>2.4</v>
+      </c>
+      <c r="E19">
+        <v>8.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1977</v>
       </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" t="s">
-        <v>46</v>
+      <c r="B20">
+        <v>6.4</v>
+      </c>
+      <c r="C20">
+        <v>0.4</v>
+      </c>
+      <c r="D20">
+        <v>2.4</v>
+      </c>
+      <c r="E20">
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1978</v>
       </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" t="s">
-        <v>49</v>
+      <c r="B21">
+        <v>6.5</v>
+      </c>
+      <c r="C21">
+        <v>0.4</v>
+      </c>
+      <c r="D21">
+        <v>2.6</v>
+      </c>
+      <c r="E21">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1979</v>
       </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
+      <c r="B22">
+        <v>6.8</v>
+      </c>
+      <c r="C22">
+        <v>0.4</v>
+      </c>
+      <c r="D22">
+        <v>2.7</v>
+      </c>
+      <c r="E22">
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1601,11 +1286,11 @@
       <c r="B23">
         <v>7</v>
       </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
+      <c r="C23">
+        <v>0.4</v>
+      </c>
+      <c r="D23">
+        <v>2.8</v>
       </c>
       <c r="E23">
         <v>9</v>
@@ -1618,130 +1303,130 @@
       <c r="B24">
         <v>7</v>
       </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" t="s">
-        <v>53</v>
+      <c r="C24">
+        <v>0.4</v>
+      </c>
+      <c r="D24">
+        <v>2.8</v>
+      </c>
+      <c r="E24">
+        <v>8.6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1982</v>
       </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
+      <c r="B25">
+        <v>7.1</v>
+      </c>
+      <c r="C25">
+        <v>0.4</v>
+      </c>
+      <c r="D25">
+        <v>2.7</v>
+      </c>
+      <c r="E25">
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1983</v>
       </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" t="s">
-        <v>55</v>
+      <c r="B26">
+        <v>7.3</v>
+      </c>
+      <c r="C26">
+        <v>0.4</v>
+      </c>
+      <c r="D26">
+        <v>2.8</v>
+      </c>
+      <c r="E26">
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1984</v>
       </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>42</v>
+      <c r="B27">
+        <v>7.7</v>
+      </c>
+      <c r="C27">
+        <v>0.4</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
-      <c r="E27" t="s">
-        <v>55</v>
+      <c r="E27">
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1985</v>
       </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>55</v>
+      <c r="B28">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C28">
+        <v>0.4</v>
+      </c>
+      <c r="D28">
+        <v>3.1</v>
+      </c>
+      <c r="E28">
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1986</v>
       </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
+      <c r="B29">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C29">
+        <v>0.4</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
-      <c r="E29" t="s">
-        <v>53</v>
+      <c r="E29">
+        <v>8.6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1987</v>
       </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" t="s">
-        <v>59</v>
+      <c r="B30">
+        <v>8.6</v>
+      </c>
+      <c r="C30">
+        <v>0.5</v>
+      </c>
+      <c r="D30">
+        <v>3.3</v>
+      </c>
+      <c r="E30">
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1988</v>
       </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" t="s">
-        <v>61</v>
+      <c r="B31">
+        <v>8.9</v>
+      </c>
+      <c r="C31">
+        <v>0.5</v>
+      </c>
+      <c r="D31">
+        <v>3.5</v>
       </c>
       <c r="E31">
         <v>9</v>
@@ -1751,119 +1436,119 @@
       <c r="A32">
         <v>1989</v>
       </c>
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s">
-        <v>62</v>
+      <c r="B32">
+        <v>8.9</v>
+      </c>
+      <c r="C32">
+        <v>0.5</v>
+      </c>
+      <c r="D32">
+        <v>3.6</v>
+      </c>
+      <c r="E32">
+        <v>9.1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1990</v>
       </c>
-      <c r="B33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" t="s">
-        <v>49</v>
+      <c r="B33">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C33">
+        <v>0.5</v>
+      </c>
+      <c r="D33">
+        <v>3.8</v>
+      </c>
+      <c r="E33">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1991</v>
       </c>
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" t="s">
-        <v>64</v>
+      <c r="B34">
+        <v>8.6</v>
+      </c>
+      <c r="C34">
+        <v>0.5</v>
+      </c>
+      <c r="D34">
+        <v>3.9</v>
+      </c>
+      <c r="E34">
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1992</v>
       </c>
-      <c r="B35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" t="s">
-        <v>58</v>
+      <c r="B35">
+        <v>8.4</v>
+      </c>
+      <c r="C35">
+        <v>0.5</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
-      <c r="E35" t="s">
-        <v>49</v>
+      <c r="E35">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1993</v>
       </c>
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" t="s">
-        <v>49</v>
+      <c r="B36">
+        <v>8.5</v>
+      </c>
+      <c r="C36">
+        <v>0.6</v>
+      </c>
+      <c r="D36">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E36">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1994</v>
       </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" t="s">
-        <v>51</v>
+      <c r="B37">
+        <v>8.5</v>
+      </c>
+      <c r="C37">
+        <v>0.6</v>
+      </c>
+      <c r="D37">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E37">
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1995</v>
       </c>
-      <c r="B38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" t="s">
-        <v>68</v>
+      <c r="B38">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C38">
+        <v>0.6</v>
+      </c>
+      <c r="D38">
+        <v>4.2</v>
+      </c>
+      <c r="E38">
+        <v>9.4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1873,14 +1558,14 @@
       <c r="B39">
         <v>9</v>
       </c>
-      <c r="C39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" t="s">
-        <v>69</v>
+      <c r="C39">
+        <v>0.6</v>
+      </c>
+      <c r="D39">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E39">
+        <v>9.6</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1890,130 +1575,130 @@
       <c r="B40">
         <v>9</v>
       </c>
-      <c r="C40" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" t="s">
-        <v>71</v>
+      <c r="C40">
+        <v>0.7</v>
+      </c>
+      <c r="D40">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E40">
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1998</v>
       </c>
-      <c r="B41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" t="s">
-        <v>73</v>
+      <c r="B41">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C41">
+        <v>0.7</v>
+      </c>
+      <c r="D41">
+        <v>4.5</v>
+      </c>
+      <c r="E41">
+        <v>9.9</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1999</v>
       </c>
-      <c r="B42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" t="s">
-        <v>75</v>
+      <c r="B42">
+        <v>8.9</v>
+      </c>
+      <c r="C42">
+        <v>0.7</v>
+      </c>
+      <c r="D42">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E42">
+        <v>10.1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2000</v>
       </c>
-      <c r="B43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" t="s">
-        <v>77</v>
+      <c r="B43">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C43">
+        <v>0.7</v>
+      </c>
+      <c r="D43">
+        <v>4.7</v>
+      </c>
+      <c r="E43">
+        <v>10.3</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2001</v>
       </c>
-      <c r="B44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" t="s">
-        <v>78</v>
+      <c r="B44">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C44">
+        <v>0.8</v>
+      </c>
+      <c r="D44">
+        <v>4.8</v>
+      </c>
+      <c r="E44">
+        <v>10.4</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2002</v>
       </c>
-      <c r="B45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" t="s">
-        <v>78</v>
+      <c r="B45">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C45">
+        <v>0.8</v>
+      </c>
+      <c r="D45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E45">
+        <v>10.4</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2003</v>
       </c>
-      <c r="B46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" t="s">
-        <v>80</v>
+      <c r="B46">
+        <v>10.5</v>
+      </c>
+      <c r="C46">
+        <v>0.9</v>
+      </c>
+      <c r="D46">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E46">
+        <v>10.7</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2004</v>
       </c>
-      <c r="B47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" t="s">
-        <v>19</v>
+      <c r="B47">
+        <v>10.9</v>
+      </c>
+      <c r="C47">
+        <v>0.9</v>
+      </c>
+      <c r="D47">
+        <v>5.3</v>
       </c>
       <c r="E47">
         <v>11</v>
@@ -2023,68 +1708,68 @@
       <c r="A48">
         <v>2005</v>
       </c>
-      <c r="B48" t="s">
-        <v>82</v>
+      <c r="B48">
+        <v>11.5</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" t="s">
-        <v>83</v>
+      <c r="D48">
+        <v>5.4</v>
+      </c>
+      <c r="E48">
+        <v>11.1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2006</v>
       </c>
-      <c r="B49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" t="s">
-        <v>86</v>
+      <c r="B49">
+        <v>12.2</v>
+      </c>
+      <c r="C49">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D49">
+        <v>5.5</v>
+      </c>
+      <c r="E49">
+        <v>11.2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2007</v>
       </c>
-      <c r="B50" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" t="s">
-        <v>29</v>
-      </c>
-      <c r="E50" t="s">
-        <v>88</v>
+      <c r="B50">
+        <v>12.8</v>
+      </c>
+      <c r="C50">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D50">
+        <v>5.7</v>
+      </c>
+      <c r="E50">
+        <v>11.3</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2008</v>
       </c>
-      <c r="B51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" t="s">
-        <v>88</v>
+      <c r="B51">
+        <v>13.2</v>
+      </c>
+      <c r="C51">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D51">
+        <v>5.9</v>
+      </c>
+      <c r="E51">
+        <v>11.3</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2094,11 +1779,11 @@
       <c r="B52">
         <v>13</v>
       </c>
-      <c r="C52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" t="s">
-        <v>90</v>
+      <c r="C52">
+        <v>1.2</v>
+      </c>
+      <c r="D52">
+        <v>5.8</v>
       </c>
       <c r="E52">
         <v>11</v>
@@ -2108,51 +1793,51 @@
       <c r="A53">
         <v>2010</v>
       </c>
-      <c r="B53" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" t="s">
-        <v>93</v>
+      <c r="B53">
+        <v>13.9</v>
+      </c>
+      <c r="C53">
+        <v>1.3</v>
+      </c>
+      <c r="D53">
+        <v>6.2</v>
+      </c>
+      <c r="E53">
+        <v>11.4</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2011</v>
       </c>
-      <c r="B54" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54" t="s">
-        <v>93</v>
+      <c r="B54">
+        <v>14.7</v>
+      </c>
+      <c r="C54">
+        <v>1.3</v>
+      </c>
+      <c r="D54">
+        <v>6.4</v>
+      </c>
+      <c r="E54">
+        <v>11.4</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2012</v>
       </c>
-      <c r="B55" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" t="s">
-        <v>47</v>
-      </c>
-      <c r="E55" t="s">
-        <v>82</v>
+      <c r="B55">
+        <v>14.9</v>
+      </c>
+      <c r="C55">
+        <v>1.4</v>
+      </c>
+      <c r="D55">
+        <v>6.5</v>
+      </c>
+      <c r="E55">
+        <v>11.5</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2162,59 +1847,59 @@
       <c r="B56">
         <v>15</v>
       </c>
-      <c r="C56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" t="s">
-        <v>47</v>
-      </c>
-      <c r="E56" t="s">
-        <v>96</v>
+      <c r="C56">
+        <v>1.4</v>
+      </c>
+      <c r="D56">
+        <v>6.5</v>
+      </c>
+      <c r="E56">
+        <v>11.6</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2014</v>
       </c>
-      <c r="B57" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" t="s">
-        <v>98</v>
-      </c>
-      <c r="D57" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" t="s">
-        <v>100</v>
+      <c r="B57">
+        <v>15.1</v>
+      </c>
+      <c r="C57">
+        <v>1.5</v>
+      </c>
+      <c r="D57">
+        <v>6.7</v>
+      </c>
+      <c r="E57">
+        <v>11.7</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2015</v>
       </c>
-      <c r="B58" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E58" t="s">
-        <v>101</v>
+      <c r="B58">
+        <v>14.7</v>
+      </c>
+      <c r="C58">
+        <v>1.4</v>
+      </c>
+      <c r="D58">
+        <v>6.8</v>
+      </c>
+      <c r="E58">
+        <v>11.9</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2016</v>
       </c>
-      <c r="B59" t="s">
-        <v>102</v>
-      </c>
-      <c r="C59" t="s">
-        <v>98</v>
+      <c r="B59">
+        <v>14.4</v>
+      </c>
+      <c r="C59">
+        <v>1.5</v>
       </c>
       <c r="D59">
         <v>7</v>
@@ -2227,68 +1912,68 @@
       <c r="A60">
         <v>2017</v>
       </c>
-      <c r="B60" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" t="s">
-        <v>54</v>
-      </c>
-      <c r="E60" t="s">
-        <v>84</v>
+      <c r="B60">
+        <v>14.5</v>
+      </c>
+      <c r="C60">
+        <v>1.5</v>
+      </c>
+      <c r="D60">
+        <v>7.1</v>
+      </c>
+      <c r="E60">
+        <v>12.2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2018</v>
       </c>
-      <c r="B61" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61" t="s">
-        <v>104</v>
-      </c>
-      <c r="E61" t="s">
-        <v>105</v>
+      <c r="B61">
+        <v>14.7</v>
+      </c>
+      <c r="C61">
+        <v>1.6</v>
+      </c>
+      <c r="D61">
+        <v>7.5</v>
+      </c>
+      <c r="E61">
+        <v>12.3</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2019</v>
       </c>
-      <c r="B62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" t="s">
-        <v>26</v>
-      </c>
-      <c r="D62" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" t="s">
-        <v>105</v>
+      <c r="B62">
+        <v>14.7</v>
+      </c>
+      <c r="C62">
+        <v>1.6</v>
+      </c>
+      <c r="D62">
+        <v>7.6</v>
+      </c>
+      <c r="E62">
+        <v>12.3</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2020</v>
       </c>
-      <c r="B63" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63" t="s">
-        <v>106</v>
-      </c>
-      <c r="E63" t="s">
-        <v>86</v>
+      <c r="B63">
+        <v>14.2</v>
+      </c>
+      <c r="C63">
+        <v>1.6</v>
+      </c>
+      <c r="D63">
+        <v>7.6</v>
+      </c>
+      <c r="E63">
+        <v>11.2</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2298,37 +1983,38 @@
       <c r="B64">
         <v>15</v>
       </c>
-      <c r="C64" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" t="s">
-        <v>108</v>
-      </c>
-      <c r="E64" t="s">
-        <v>109</v>
+      <c r="C64">
+        <v>1.7</v>
+      </c>
+      <c r="D64">
+        <v>7.9</v>
+      </c>
+      <c r="E64">
+        <v>11.8</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2022</v>
       </c>
-      <c r="B65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" t="s">
-        <v>108</v>
-      </c>
-      <c r="E65" t="s">
-        <v>110</v>
+      <c r="B65">
+        <v>15.1</v>
+      </c>
+      <c r="C65">
+        <v>1.6</v>
+      </c>
+      <c r="D65">
+        <v>7.9</v>
+      </c>
+      <c r="E65">
+        <v>12.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>